--- a/Data/Ribosome_catalytic_rate.xlsx
+++ b/Data/Ribosome_catalytic_rate.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/MATLAB/Code and Data/ME_model_Matlab/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/pcLactis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5342B092-1CEE-7941-AB62-F6A2412D0252}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713B4E78-B9F3-3342-83D4-17CF2A7BBADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{5A9C3CCF-2692-5E42-8785-E972979C893D}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{5A9C3CCF-2692-5E42-8785-E972979C893D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="177">
   <si>
     <t>l0378</t>
   </si>
@@ -578,6 +585,12 @@
   </si>
   <si>
     <t>Median</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -658,7 +671,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1022,7 +1035,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1383,6 +1396,458 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$U$2:$AA$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$U$3:$AA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.1198809946714032</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12876198934280639</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1376429840142096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14652397868561279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15540497335701597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16428596802841919</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17316696269982237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB8F-8342-9F73-0E3BF6C662CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$U$2:$AA$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$U$4:$AA$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.13964962726304581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15029925452609158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16094888178913738</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17159850905218318</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18224813631522896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19289776357827476</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20354739084132056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CB8F-8342-9F73-0E3BF6C662CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1193690064"/>
+        <c:axId val="1161937632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1193690064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1161937632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1161937632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1193690064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1424,6 +1889,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2495,6 +3000,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2541,8 +3562,8 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2070118" cy="441083"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -2693,7 +3714,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -2791,8 +3812,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1405962" cy="442814"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -2961,7 +3982,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -3099,8 +4120,8 @@
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2169505" cy="441083"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -3251,7 +4272,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -3349,8 +4370,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1306576" cy="438453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -3519,7 +4540,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -3613,6 +4634,47 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B2AC87-FB54-4148-BBB5-AEBE1096FE10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3915,8 +4977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D22191-6652-6348-88B2-8F2BBFD7FFB6}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD60"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5420,4 +6482,2458 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B04970-148C-E24E-A70E-63397C70E54E}">
+  <dimension ref="A1:AB47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="11" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1">
+        <v>0.1</v>
+      </c>
+      <c r="C1">
+        <v>0.2</v>
+      </c>
+      <c r="D1">
+        <v>0.3</v>
+      </c>
+      <c r="E1">
+        <v>0.4</v>
+      </c>
+      <c r="F1">
+        <v>0.5</v>
+      </c>
+      <c r="G1">
+        <f>1/B1</f>
+        <v>10</v>
+      </c>
+      <c r="H1">
+        <f t="shared" ref="H1:K1" si="0">1/C1</f>
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" t="s">
+        <v>176</v>
+      </c>
+      <c r="P1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9.069643796605531</v>
+      </c>
+      <c r="C2">
+        <v>18.106534986940918</v>
+      </c>
+      <c r="D2">
+        <v>24.473861295364934</v>
+      </c>
+      <c r="E2">
+        <v>29.30262421745547</v>
+      </c>
+      <c r="F2">
+        <v>32.866258770006269</v>
+      </c>
+      <c r="G2">
+        <f>1/B2</f>
+        <v>0.11025791336747613</v>
+      </c>
+      <c r="H2">
+        <f>1/C2</f>
+        <v>5.5228678525252671E-2</v>
+      </c>
+      <c r="I2">
+        <f>1/D2</f>
+        <v>4.085991940263993E-2</v>
+      </c>
+      <c r="J2">
+        <f>1/E2</f>
+        <v>3.4126636323729108E-2</v>
+      </c>
+      <c r="K2">
+        <f>1/F2</f>
+        <v>3.0426341099480402E-2</v>
+      </c>
+      <c r="L2">
+        <f>SLOPE(G2:K2,G$1:K$1)</f>
+        <v>1.0073534291260311E-2</v>
+      </c>
+      <c r="M2">
+        <f>INTERCEPT(G2:K2,G$1:K$1)</f>
+        <v>8.1774244802935714E-3</v>
+      </c>
+      <c r="U2">
+        <v>0.1</v>
+      </c>
+      <c r="V2">
+        <v>0.2</v>
+      </c>
+      <c r="W2">
+        <v>0.3</v>
+      </c>
+      <c r="X2">
+        <v>0.4</v>
+      </c>
+      <c r="Y2">
+        <v>0.5</v>
+      </c>
+      <c r="Z2">
+        <v>0.6</v>
+      </c>
+      <c r="AA2">
+        <v>0.7</v>
+      </c>
+      <c r="AB2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2.9145147481226763</v>
+      </c>
+      <c r="C3">
+        <v>4.8574122397673856</v>
+      </c>
+      <c r="D3">
+        <v>7.2679852283465953</v>
+      </c>
+      <c r="E3">
+        <v>7.9927082204471933</v>
+      </c>
+      <c r="F3">
+        <v>8.7089749232843197</v>
+      </c>
+      <c r="G3">
+        <f>1/B3</f>
+        <v>0.34311028984983832</v>
+      </c>
+      <c r="H3">
+        <f>1/C3</f>
+        <v>0.20587093510677376</v>
+      </c>
+      <c r="I3">
+        <f>1/D3</f>
+        <v>0.13758971277208987</v>
+      </c>
+      <c r="J3">
+        <f>1/E3</f>
+        <v>0.12511403799800536</v>
+      </c>
+      <c r="K3">
+        <f>1/F3</f>
+        <v>0.11482407617530273</v>
+      </c>
+      <c r="L3">
+        <f>SLOPE(G3:K3,G$1:K$1)</f>
+        <v>2.9234917482552591E-2</v>
+      </c>
+      <c r="M3">
+        <f>INTERCEPT(G3:K3,G$1:K$1)</f>
+        <v>5.1795687210078517E-2</v>
+      </c>
+      <c r="U3">
+        <f>U2/11.26+0.111</f>
+        <v>0.1198809946714032</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:AA3" si="1">V2/11.26+0.111</f>
+        <v>0.12876198934280639</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="1"/>
+        <v>0.1376429840142096</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="1"/>
+        <v>0.14652397868561279</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="1"/>
+        <v>0.15540497335701597</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="1"/>
+        <v>0.16428596802841919</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="1"/>
+        <v>0.17316696269982237</v>
+      </c>
+      <c r="AB3">
+        <f>AB2/11.26+0.111</f>
+        <v>0.18204795737122559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>15.40941460888623</v>
+      </c>
+      <c r="C4">
+        <v>26.522851703322516</v>
+      </c>
+      <c r="D4">
+        <v>38.69429237547785</v>
+      </c>
+      <c r="E4">
+        <v>44.819109601167959</v>
+      </c>
+      <c r="F4">
+        <v>47.661270617982055</v>
+      </c>
+      <c r="G4">
+        <f>1/B4</f>
+        <v>6.4895391900437582E-2</v>
+      </c>
+      <c r="H4">
+        <f>1/C4</f>
+        <v>3.77033363978252E-2</v>
+      </c>
+      <c r="I4">
+        <f>1/D4</f>
+        <v>2.5843604795671125E-2</v>
+      </c>
+      <c r="J4">
+        <f>1/E4</f>
+        <v>2.231191134537712E-2</v>
+      </c>
+      <c r="K4">
+        <f>1/F4</f>
+        <v>2.0981396153184204E-2</v>
+      </c>
+      <c r="L4">
+        <f>SLOPE(G4:K4,G$1:K$1)</f>
+        <v>5.6332942462734873E-3</v>
+      </c>
+      <c r="M4">
+        <f>INTERCEPT(G4:K4,G$1:K$1)</f>
+        <v>8.621751060516783E-3</v>
+      </c>
+      <c r="U4">
+        <f>U2/9.39+0.129</f>
+        <v>0.13964962726304581</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:AA4" si="2">V2/9.39+0.129</f>
+        <v>0.15029925452609158</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="2"/>
+        <v>0.16094888178913738</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="2"/>
+        <v>0.17159850905218318</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="2"/>
+        <v>0.18224813631522896</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="2"/>
+        <v>0.19289776357827476</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="2"/>
+        <v>0.20354739084132056</v>
+      </c>
+      <c r="AB4">
+        <f>AB2/9.39+0.129</f>
+        <v>0.21419701810436637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>3.3255360587553615</v>
+      </c>
+      <c r="C5">
+        <v>5.8206833035841044</v>
+      </c>
+      <c r="D5">
+        <v>7.3474442237762307</v>
+      </c>
+      <c r="E5">
+        <v>9.017241986990836</v>
+      </c>
+      <c r="F5">
+        <v>11.961375736664049</v>
+      </c>
+      <c r="G5">
+        <f>1/B5</f>
+        <v>0.30070340009311675</v>
+      </c>
+      <c r="H5">
+        <f>1/C5</f>
+        <v>0.17180113533822511</v>
+      </c>
+      <c r="I5">
+        <f>1/D5</f>
+        <v>0.13610174770214839</v>
+      </c>
+      <c r="J5">
+        <f>1/E5</f>
+        <v>0.11089865409431163</v>
+      </c>
+      <c r="K5">
+        <f>1/F5</f>
+        <v>8.3602423501737896E-2</v>
+      </c>
+      <c r="L5">
+        <f>SLOPE(G5:K5,G$1:K$1)</f>
+        <v>2.605533353704936E-2</v>
+      </c>
+      <c r="M5">
+        <f>INTERCEPT(G5:K5,G$1:K$1)</f>
+        <v>4.1635448993382534E-2</v>
+      </c>
+      <c r="U5">
+        <f>U2/13.25+0.087</f>
+        <v>9.4547169811320747E-2</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:AA5" si="3">V2/13.25+0.087</f>
+        <v>0.1020943396226415</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="3"/>
+        <v>0.10964150943396225</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="3"/>
+        <v>0.11718867924528301</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="3"/>
+        <v>0.12473584905660376</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="3"/>
+        <v>0.13228301886792451</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="3"/>
+        <v>0.13983018867924527</v>
+      </c>
+      <c r="AB5">
+        <f>AB2/13.25+0.087</f>
+        <v>0.14737735849056605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>5.7642625018426266</v>
+      </c>
+      <c r="C6">
+        <v>10.706471226340973</v>
+      </c>
+      <c r="D6">
+        <v>14.029130407193479</v>
+      </c>
+      <c r="E6">
+        <v>17.833607160537067</v>
+      </c>
+      <c r="F6">
+        <v>21.964242272079076</v>
+      </c>
+      <c r="G6">
+        <f>1/B6</f>
+        <v>0.17348273082295196</v>
+      </c>
+      <c r="H6">
+        <f>1/C6</f>
+        <v>9.3401455891434587E-2</v>
+      </c>
+      <c r="I6">
+        <f>1/D6</f>
+        <v>7.128025550943963E-2</v>
+      </c>
+      <c r="J6">
+        <f>1/E6</f>
+        <v>5.6073905351736175E-2</v>
+      </c>
+      <c r="K6">
+        <f>1/F6</f>
+        <v>4.5528545333485007E-2</v>
+      </c>
+      <c r="L6">
+        <f>SLOPE(G6:K6,G$1:K$1)</f>
+        <v>1.5738321917419137E-2</v>
+      </c>
+      <c r="M6">
+        <f>INTERCEPT(G6:K6,G$1:K$1)</f>
+        <v>1.6081708492262078E-2</v>
+      </c>
+      <c r="U6">
+        <f>0.56/(1+U3)</f>
+        <v>0.50005313302447452</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ref="V6:AA6" si="4">0.56/(1+V3)</f>
+        <v>0.49611876133962141</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="4"/>
+        <v>0.49224581689417368</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="4"/>
+        <v>0.48843287223873855</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="4"/>
+        <v>0.48467854381215481</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="4"/>
+        <v>0.48098149026763065</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="4"/>
+        <v>0.47734041087490708</v>
+      </c>
+      <c r="AB6">
+        <f>0.56/(1+AB3)</f>
+        <v>0.47375404399445226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>1.3970833711826833</v>
+      </c>
+      <c r="C7">
+        <v>2.2194286367881904</v>
+      </c>
+      <c r="D7">
+        <v>3.4421254624762492</v>
+      </c>
+      <c r="E7">
+        <v>3.9755538044119754</v>
+      </c>
+      <c r="F7">
+        <v>6.1966227897158088</v>
+      </c>
+      <c r="G7">
+        <f>1/B7</f>
+        <v>0.71577689680284617</v>
+      </c>
+      <c r="H7">
+        <f>1/C7</f>
+        <v>0.45056641309590995</v>
+      </c>
+      <c r="I7">
+        <f>1/D7</f>
+        <v>0.2905181728270313</v>
+      </c>
+      <c r="J7">
+        <f>1/E7</f>
+        <v>0.25153728240081263</v>
+      </c>
+      <c r="K7">
+        <f>1/F7</f>
+        <v>0.16137822713037245</v>
+      </c>
+      <c r="L7">
+        <f>SLOPE(G7:K7,G$1:K$1)</f>
+        <v>6.6334522299330678E-2</v>
+      </c>
+      <c r="M7">
+        <f>INTERCEPT(G7:K7,G$1:K$1)</f>
+        <v>7.1027746617784382E-2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ref="U7:AA7" si="5">0.56/(1+U4)</f>
+        <v>0.4913790928400355</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="5"/>
+        <v>0.48682983823258486</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="5"/>
+        <v>0.48236404615592077</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="5"/>
+        <v>0.47797944063025227</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="5"/>
+        <v>0.47367382768339961</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="5"/>
+        <v>0.46944509169016846</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="5"/>
+        <v>0.4652911919060711</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" ref="AB7" si="6">0.56/(1+AB4)</f>
+        <v>0.46121015918346225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>4.0112135966430653</v>
+      </c>
+      <c r="C8">
+        <v>6.4177933288294948</v>
+      </c>
+      <c r="D8">
+        <v>8.5473293026498975</v>
+      </c>
+      <c r="E8">
+        <v>10.335435847701335</v>
+      </c>
+      <c r="F8">
+        <v>12.134811612165738</v>
+      </c>
+      <c r="G8">
+        <f>1/B8</f>
+        <v>0.24930110947890871</v>
+      </c>
+      <c r="H8">
+        <f>1/C8</f>
+        <v>0.15581679695229206</v>
+      </c>
+      <c r="I8">
+        <f>1/D8</f>
+        <v>0.11699560934080001</v>
+      </c>
+      <c r="J8">
+        <f>1/E8</f>
+        <v>9.6754506992794712E-2</v>
+      </c>
+      <c r="K8">
+        <f>1/F8</f>
+        <v>8.2407542198467382E-2</v>
+      </c>
+      <c r="L8">
+        <f>SLOPE(G8:K8,G$1:K$1)</f>
+        <v>2.0582392933207808E-2</v>
+      </c>
+      <c r="M8">
+        <f>INTERCEPT(G8:K8,G$1:K$1)</f>
+        <v>4.6262185264336939E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" ref="U8:AA8" si="7">0.56/(1+U5)</f>
+        <v>0.51162710520418553</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="7"/>
+        <v>0.5081234698943693</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="7"/>
+        <v>0.50466749417625956</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="7"/>
+        <v>0.501258212156525</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="7"/>
+        <v>0.49789468386707159</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="7"/>
+        <v>0.49457599440102656</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="7"/>
+        <v>0.49130125308304784</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" ref="AB8" si="8">0.56/(1+AB5)</f>
+        <v>0.48806959267237843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>7.7047073044431151</v>
+      </c>
+      <c r="C9">
+        <v>14.929191367946901</v>
+      </c>
+      <c r="D9">
+        <v>22.744398062145002</v>
+      </c>
+      <c r="E9">
+        <v>26.301216560784024</v>
+      </c>
+      <c r="F9">
+        <v>31.243733137841655</v>
+      </c>
+      <c r="G9">
+        <f>1/B9</f>
+        <v>0.12979078380087516</v>
+      </c>
+      <c r="H9">
+        <f>1/C9</f>
+        <v>6.6982864332961023E-2</v>
+      </c>
+      <c r="I9">
+        <f>1/D9</f>
+        <v>4.3966870315392773E-2</v>
+      </c>
+      <c r="J9">
+        <f>1/E9</f>
+        <v>3.8021054945839759E-2</v>
+      </c>
+      <c r="K9">
+        <f>1/F9</f>
+        <v>3.2006418554024328E-2</v>
+      </c>
+      <c r="L9">
+        <f>SLOPE(G9:K9,G$1:K$1)</f>
+        <v>1.2337461319086333E-2</v>
+      </c>
+      <c r="M9">
+        <f>INTERCEPT(G9:K9,G$1:K$1)</f>
+        <v>5.8125250326576811E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>5.7218782187408417</v>
+      </c>
+      <c r="C10">
+        <v>9.3391506817555108</v>
+      </c>
+      <c r="D10">
+        <v>11.599020267183427</v>
+      </c>
+      <c r="E10">
+        <v>15.850812124963385</v>
+      </c>
+      <c r="F10">
+        <v>17.220244706455688</v>
+      </c>
+      <c r="G10">
+        <f>1/B10</f>
+        <v>0.17476778808830717</v>
+      </c>
+      <c r="H10">
+        <f>1/C10</f>
+        <v>0.10707611795508869</v>
+      </c>
+      <c r="I10">
+        <f>1/D10</f>
+        <v>8.6214178177552975E-2</v>
+      </c>
+      <c r="J10">
+        <f>1/E10</f>
+        <v>6.3088250123481293E-2</v>
+      </c>
+      <c r="K10">
+        <f>1/F10</f>
+        <v>5.8071184065410557E-2</v>
+      </c>
+      <c r="L10">
+        <f>SLOPE(G10:K10,G$1:K$1)</f>
+        <v>1.4498095342039316E-2</v>
+      </c>
+      <c r="M10">
+        <f>INTERCEPT(G10:K10,G$1:K$1)</f>
+        <v>3.1635534953321942E-2</v>
+      </c>
+      <c r="U10">
+        <f>U2/4.5+0.087</f>
+        <v>0.10922222222222222</v>
+      </c>
+      <c r="V10">
+        <f t="shared" ref="V10:AB10" si="9">V2/4.5+0.087</f>
+        <v>0.13144444444444445</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="9"/>
+        <v>0.15366666666666667</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="9"/>
+        <v>0.17588888888888887</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="9"/>
+        <v>0.1981111111111111</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="9"/>
+        <v>0.22033333333333333</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="9"/>
+        <v>0.24255555555555555</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="9"/>
+        <v>0.26477777777777778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>1.4331039369222001</v>
+      </c>
+      <c r="C11">
+        <v>2.5606241768257605</v>
+      </c>
+      <c r="D11">
+        <v>3.6827235350770078</v>
+      </c>
+      <c r="E11">
+        <v>4.4382889901579734</v>
+      </c>
+      <c r="F11">
+        <v>4.9846893949841542</v>
+      </c>
+      <c r="G11">
+        <f>1/B11</f>
+        <v>0.69778609508787337</v>
+      </c>
+      <c r="H11">
+        <f>1/C11</f>
+        <v>0.39052978139089317</v>
+      </c>
+      <c r="I11">
+        <f>1/D11</f>
+        <v>0.27153816746634757</v>
+      </c>
+      <c r="J11">
+        <f>1/E11</f>
+        <v>0.22531205205824298</v>
+      </c>
+      <c r="K11">
+        <f>1/F11</f>
+        <v>0.20061430527772711</v>
+      </c>
+      <c r="L11">
+        <f>SLOPE(G11:K11,G$1:K$1)</f>
+        <v>6.2845137059520106E-2</v>
+      </c>
+      <c r="M11">
+        <f>INTERCEPT(G11:K11,G$1:K$1)</f>
+        <v>7.0163287684408382E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>5.807279386184736</v>
+      </c>
+      <c r="C12">
+        <v>9.7592967516044471</v>
+      </c>
+      <c r="D12">
+        <v>13.03012943617348</v>
+      </c>
+      <c r="E12">
+        <v>16.930586397808682</v>
+      </c>
+      <c r="F12">
+        <v>19.66082086302848</v>
+      </c>
+      <c r="G12">
+        <f>1/B12</f>
+        <v>0.17219767355759674</v>
+      </c>
+      <c r="H12">
+        <f>1/C12</f>
+        <v>0.10246639952162517</v>
+      </c>
+      <c r="I12">
+        <f>1/D12</f>
+        <v>7.6745208472285678E-2</v>
+      </c>
+      <c r="J12">
+        <f>1/E12</f>
+        <v>5.9064699621356853E-2</v>
+      </c>
+      <c r="K12">
+        <f>1/F12</f>
+        <v>5.0862576235586723E-2</v>
+      </c>
+      <c r="L12">
+        <f>SLOPE(G12:K12,G$1:K$1)</f>
+        <v>1.5033485895087533E-2</v>
+      </c>
+      <c r="M12">
+        <f>INTERCEPT(G12:K12,G$1:K$1)</f>
+        <v>2.3614392560790509E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>3.3833714684728458</v>
+      </c>
+      <c r="C13">
+        <v>6.9494314806625068</v>
+      </c>
+      <c r="D13">
+        <v>9.3565980066174586</v>
+      </c>
+      <c r="E13">
+        <v>11.973820781967399</v>
+      </c>
+      <c r="F13">
+        <v>13.131191838165703</v>
+      </c>
+      <c r="G13">
+        <f>1/B13</f>
+        <v>0.29556317103169594</v>
+      </c>
+      <c r="H13">
+        <f>1/C13</f>
+        <v>0.14389666302669515</v>
+      </c>
+      <c r="I13">
+        <f>1/D13</f>
+        <v>0.106876452241803</v>
+      </c>
+      <c r="J13">
+        <f>1/E13</f>
+        <v>8.3515530941134702E-2</v>
+      </c>
+      <c r="K13">
+        <f>1/F13</f>
+        <v>7.6154549588827725E-2</v>
+      </c>
+      <c r="L13">
+        <f>SLOPE(G13:K13,G$1:K$1)</f>
+        <v>2.775963162186643E-2</v>
+      </c>
+      <c r="M13">
+        <f>INTERCEPT(G13:K13,G$1:K$1)</f>
+        <v>1.4432288959507961E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>3.833376540634259</v>
+      </c>
+      <c r="C14">
+        <v>6.2739421442524748</v>
+      </c>
+      <c r="D14">
+        <v>8.9535060260245185</v>
+      </c>
+      <c r="E14">
+        <v>10.301957711741879</v>
+      </c>
+      <c r="F14">
+        <v>12.578745015494812</v>
+      </c>
+      <c r="G14">
+        <f>1/B14</f>
+        <v>0.26086662486710555</v>
+      </c>
+      <c r="H14">
+        <f>1/C14</f>
+        <v>0.1593894200819328</v>
+      </c>
+      <c r="I14">
+        <f>1/D14</f>
+        <v>0.11168809146867956</v>
+      </c>
+      <c r="J14">
+        <f>1/E14</f>
+        <v>9.7068928836722787E-2</v>
+      </c>
+      <c r="K14">
+        <f>1/F14</f>
+        <v>7.9499186824136675E-2</v>
+      </c>
+      <c r="L14">
+        <f>SLOPE(G14:K14,G$1:K$1)</f>
+        <v>2.2429634601420421E-2</v>
+      </c>
+      <c r="M14">
+        <f>INTERCEPT(G14:K14,G$1:K$1)</f>
+        <v>3.9273785735895558E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>2.0862612272084573</v>
+      </c>
+      <c r="C15">
+        <v>3.8559124102416744</v>
+      </c>
+      <c r="D15">
+        <v>5.3767873333531613</v>
+      </c>
+      <c r="E15">
+        <v>6.8493354054766042</v>
+      </c>
+      <c r="F15">
+        <v>9.0307203981869897</v>
+      </c>
+      <c r="G15">
+        <f>1/B15</f>
+        <v>0.47932635997748951</v>
+      </c>
+      <c r="H15">
+        <f>1/C15</f>
+        <v>0.25934199058669066</v>
+      </c>
+      <c r="I15">
+        <f>1/D15</f>
+        <v>0.18598466667945437</v>
+      </c>
+      <c r="J15">
+        <f>1/E15</f>
+        <v>0.14599956649814785</v>
+      </c>
+      <c r="K15">
+        <f>1/F15</f>
+        <v>0.11073313710396353</v>
+      </c>
+      <c r="L15">
+        <f>SLOPE(G15:K15,G$1:K$1)</f>
+        <v>4.5175648263142236E-2</v>
+      </c>
+      <c r="M15">
+        <f>INTERCEPT(G15:K15,G$1:K$1)</f>
+        <v>2.9975017100799667E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>4.3231968763819699</v>
+      </c>
+      <c r="C16">
+        <v>8.7715009481778772</v>
+      </c>
+      <c r="D16">
+        <v>9.9685766704389511</v>
+      </c>
+      <c r="E16">
+        <v>14.015482948947517</v>
+      </c>
+      <c r="F16">
+        <v>17.500827616748232</v>
+      </c>
+      <c r="G16">
+        <f>1/B16</f>
+        <v>0.23131030776393594</v>
+      </c>
+      <c r="H16">
+        <f>1/C16</f>
+        <v>0.11400557395000135</v>
+      </c>
+      <c r="I16">
+        <f>1/D16</f>
+        <v>0.10031522383385215</v>
+      </c>
+      <c r="J16">
+        <f>1/E16</f>
+        <v>7.1349664056713391E-2</v>
+      </c>
+      <c r="K16">
+        <f>1/F16</f>
+        <v>5.7140154848620041E-2</v>
+      </c>
+      <c r="L16">
+        <f>SLOPE(G16:K16,G$1:K$1)</f>
+        <v>2.1106535045004544E-2</v>
+      </c>
+      <c r="M16">
+        <f>INTERCEPT(G16:K16,G$1:K$1)</f>
+        <v>1.8437674851770475E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>6.0794956074121451</v>
+      </c>
+      <c r="C17">
+        <v>11.219636306134568</v>
+      </c>
+      <c r="D17">
+        <v>15.201187577336327</v>
+      </c>
+      <c r="E17">
+        <v>18.961358115410722</v>
+      </c>
+      <c r="F17">
+        <v>20.20811286476502</v>
+      </c>
+      <c r="G17">
+        <f>1/B17</f>
+        <v>0.16448732996546556</v>
+      </c>
+      <c r="H17">
+        <f>1/C17</f>
+        <v>8.9129448826539004E-2</v>
+      </c>
+      <c r="I17">
+        <f>1/D17</f>
+        <v>6.5784333948415624E-2</v>
+      </c>
+      <c r="J17">
+        <f>1/E17</f>
+        <v>5.2738838321251709E-2</v>
+      </c>
+      <c r="K17">
+        <f>1/F17</f>
+        <v>4.9485075954004872E-2</v>
+      </c>
+      <c r="L17">
+        <f>SLOPE(G17:K17,G$1:K$1)</f>
+        <v>1.4616635511073284E-2</v>
+      </c>
+      <c r="M17">
+        <f>INTERCEPT(G17:K17,G$1:K$1)</f>
+        <v>1.7575703235900686E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18">
+        <v>2.2044629964553955</v>
+      </c>
+      <c r="C18">
+        <v>3.9933181587569231</v>
+      </c>
+      <c r="D18">
+        <v>5.647846535580979</v>
+      </c>
+      <c r="E18">
+        <v>6.8012527702720087</v>
+      </c>
+      <c r="F18">
+        <v>7.8772823120509292</v>
+      </c>
+      <c r="G18">
+        <f>1/B18</f>
+        <v>0.45362521467038547</v>
+      </c>
+      <c r="H18">
+        <f>1/C18</f>
+        <v>0.25041831385438351</v>
+      </c>
+      <c r="I18">
+        <f>1/D18</f>
+        <v>0.17705863530463875</v>
+      </c>
+      <c r="J18">
+        <f>1/E18</f>
+        <v>0.14703173573712158</v>
+      </c>
+      <c r="K18">
+        <f>1/F18</f>
+        <v>0.12694733543701572</v>
+      </c>
+      <c r="L18">
+        <f>SLOPE(G18:K18,G$1:K$1)</f>
+        <v>4.0988067149490312E-2</v>
+      </c>
+      <c r="M18">
+        <f>INTERCEPT(G18:K18,G$1:K$1)</f>
+        <v>4.3837407018036539E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19">
+        <v>4.7449721813948447</v>
+      </c>
+      <c r="C19">
+        <v>8.4993361429329575</v>
+      </c>
+      <c r="D19">
+        <v>11.248320656332705</v>
+      </c>
+      <c r="E19">
+        <v>14.879945955416035</v>
+      </c>
+      <c r="F19">
+        <v>17.225106717876198</v>
+      </c>
+      <c r="G19">
+        <f>1/B19</f>
+        <v>0.21074939151825275</v>
+      </c>
+      <c r="H19">
+        <f>1/C19</f>
+        <v>0.11765624787430977</v>
+      </c>
+      <c r="I19">
+        <f>1/D19</f>
+        <v>8.8902159758133217E-2</v>
+      </c>
+      <c r="J19">
+        <f>1/E19</f>
+        <v>6.7204545164091661E-2</v>
+      </c>
+      <c r="K19">
+        <f>1/F19</f>
+        <v>5.8054792714996709E-2</v>
+      </c>
+      <c r="L19">
+        <f>SLOPE(G19:K19,G$1:K$1)</f>
+        <v>1.8972070715070115E-2</v>
+      </c>
+      <c r="M19">
+        <f>INTERCEPT(G19:K19,G$1:K$1)</f>
+        <v>2.1874304473803299E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20">
+        <v>3.9501291256281954</v>
+      </c>
+      <c r="C20">
+        <v>7.5045314040111375</v>
+      </c>
+      <c r="D20">
+        <v>10.286809675526316</v>
+      </c>
+      <c r="E20">
+        <v>13.318123972536313</v>
+      </c>
+      <c r="F20">
+        <v>13.51125653429555</v>
+      </c>
+      <c r="G20">
+        <f>1/B20</f>
+        <v>0.25315628127497436</v>
+      </c>
+      <c r="H20">
+        <f>1/C20</f>
+        <v>0.1332528236827025</v>
+      </c>
+      <c r="I20">
+        <f>1/D20</f>
+        <v>9.7211869524438915E-2</v>
+      </c>
+      <c r="J20">
+        <f>1/E20</f>
+        <v>7.5085650356020772E-2</v>
+      </c>
+      <c r="K20">
+        <f>1/F20</f>
+        <v>7.4012361282735278E-2</v>
+      </c>
+      <c r="L20">
+        <f>SLOPE(G20:K20,G$1:K$1)</f>
+        <v>2.3003426010386335E-2</v>
+      </c>
+      <c r="M20">
+        <f>INTERCEPT(G20:K20,G$1:K$1)</f>
+        <v>2.1494818443410099E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21">
+        <v>2.4782657253145048</v>
+      </c>
+      <c r="C21">
+        <v>4.3204541537342243</v>
+      </c>
+      <c r="D21">
+        <v>6.5260169037628506</v>
+      </c>
+      <c r="E21">
+        <v>8.0010185331388914</v>
+      </c>
+      <c r="F21">
+        <v>8.9618873369360319</v>
+      </c>
+      <c r="G21">
+        <f>1/B21</f>
+        <v>0.40350798132153276</v>
+      </c>
+      <c r="H21">
+        <f>1/C21</f>
+        <v>0.23145714881285967</v>
+      </c>
+      <c r="I21">
+        <f>1/D21</f>
+        <v>0.15323282405588129</v>
+      </c>
+      <c r="J21">
+        <f>1/E21</f>
+        <v>0.12498408744563781</v>
+      </c>
+      <c r="K21">
+        <f>1/F21</f>
+        <v>0.1115836388478734</v>
+      </c>
+      <c r="L21">
+        <f>SLOPE(G21:K21,G$1:K$1)</f>
+        <v>3.7040793917893569E-2</v>
+      </c>
+      <c r="M21">
+        <f>INTERCEPT(G21:K21,G$1:K$1)</f>
+        <v>3.5800177205043054E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22">
+        <v>10.96021743308105</v>
+      </c>
+      <c r="C22">
+        <v>20.601381239039675</v>
+      </c>
+      <c r="D22">
+        <v>28.927231756297864</v>
+      </c>
+      <c r="E22">
+        <v>38.9524748498362</v>
+      </c>
+      <c r="F22">
+        <v>44.850499073949848</v>
+      </c>
+      <c r="G22">
+        <f>1/B22</f>
+        <v>9.123906584021918E-2</v>
+      </c>
+      <c r="H22">
+        <f>1/C22</f>
+        <v>4.8540434662943728E-2</v>
+      </c>
+      <c r="I22">
+        <f>1/D22</f>
+        <v>3.456950213641808E-2</v>
+      </c>
+      <c r="J22">
+        <f>1/E22</f>
+        <v>2.5672309753232665E-2</v>
+      </c>
+      <c r="K22">
+        <f>1/F22</f>
+        <v>2.2296295930870073E-2</v>
+      </c>
+      <c r="L22">
+        <f>SLOPE(G22:K22,G$1:K$1)</f>
+        <v>8.6447390275732096E-3</v>
+      </c>
+      <c r="M22">
+        <f>INTERCEPT(G22:K22,G$1:K$1)</f>
+        <v>4.9858801054857571E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23">
+        <v>3.7959777451158758</v>
+      </c>
+      <c r="C23">
+        <v>8.4663231834053558</v>
+      </c>
+      <c r="D23">
+        <v>10.355752699516033</v>
+      </c>
+      <c r="E23">
+        <v>12.404583587919864</v>
+      </c>
+      <c r="F23">
+        <v>14.979620554382723</v>
+      </c>
+      <c r="G23">
+        <f>1/B23</f>
+        <v>0.26343673939781598</v>
+      </c>
+      <c r="H23">
+        <f>1/C23</f>
+        <v>0.11811502801594875</v>
+      </c>
+      <c r="I23">
+        <f>1/D23</f>
+        <v>9.656468525428713E-2</v>
+      </c>
+      <c r="J23">
+        <f>1/E23</f>
+        <v>8.0615362290262171E-2</v>
+      </c>
+      <c r="K23">
+        <f>1/F23</f>
+        <v>6.675736520625157E-2</v>
+      </c>
+      <c r="L23">
+        <f>SLOPE(G23:K23,G$1:K$1)</f>
+        <v>2.4364562525421136E-2</v>
+      </c>
+      <c r="M23">
+        <f>INTERCEPT(G23:K23,G$1:K$1)</f>
+        <v>1.3833000500156595E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24">
+        <v>1.528831901274567</v>
+      </c>
+      <c r="C24">
+        <v>3.0615547265088514</v>
+      </c>
+      <c r="D24">
+        <v>4.2910799473650298</v>
+      </c>
+      <c r="E24">
+        <v>5.6262622676505556</v>
+      </c>
+      <c r="F24">
+        <v>6.4249892093558723</v>
+      </c>
+      <c r="G24">
+        <f>1/B24</f>
+        <v>0.65409414806579658</v>
+      </c>
+      <c r="H24">
+        <f>1/C24</f>
+        <v>0.32663143054127891</v>
+      </c>
+      <c r="I24">
+        <f>1/D24</f>
+        <v>0.23304156815210531</v>
+      </c>
+      <c r="J24">
+        <f>1/E24</f>
+        <v>0.17773789283690561</v>
+      </c>
+      <c r="K24">
+        <f>1/F24</f>
+        <v>0.15564228474404762</v>
+      </c>
+      <c r="L24">
+        <f>SLOPE(G24:K24,G$1:K$1)</f>
+        <v>6.2753546538242153E-2</v>
+      </c>
+      <c r="M24">
+        <f>INTERCEPT(G24:K24,G$1:K$1)</f>
+        <v>2.2854935676720922E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25">
+        <v>10.066952622881688</v>
+      </c>
+      <c r="C25">
+        <v>20.800965420704944</v>
+      </c>
+      <c r="D25">
+        <v>29.251944950559682</v>
+      </c>
+      <c r="E25">
+        <v>35.320756475608114</v>
+      </c>
+      <c r="F25">
+        <v>37.829778618506843</v>
+      </c>
+      <c r="G25">
+        <f>1/B25</f>
+        <v>9.9334926611956947E-2</v>
+      </c>
+      <c r="H25">
+        <f>1/C25</f>
+        <v>4.807469171621314E-2</v>
+      </c>
+      <c r="I25">
+        <f>1/D25</f>
+        <v>3.418576103880118E-2</v>
+      </c>
+      <c r="J25">
+        <f>1/E25</f>
+        <v>2.8311964402307811E-2</v>
+      </c>
+      <c r="K25">
+        <f>1/F25</f>
+        <v>2.6434201745785167E-2</v>
+      </c>
+      <c r="L25">
+        <f>SLOPE(G25:K25,G$1:K$1)</f>
+        <v>9.3143470519447477E-3</v>
+      </c>
+      <c r="M25">
+        <f>INTERCEPT(G25:K25,G$1:K$1)</f>
+        <v>4.732790899131846E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26">
+        <v>4.0529970716080967</v>
+      </c>
+      <c r="C26">
+        <v>8.3127251585860975</v>
+      </c>
+      <c r="D26">
+        <v>10.355604852290403</v>
+      </c>
+      <c r="E26">
+        <v>13.967008274664222</v>
+      </c>
+      <c r="F26">
+        <v>12.037620455884767</v>
+      </c>
+      <c r="G26">
+        <f>1/B26</f>
+        <v>0.24673099494819833</v>
+      </c>
+      <c r="H26">
+        <f>1/C26</f>
+        <v>0.12029749341190644</v>
+      </c>
+      <c r="I26">
+        <f>1/D26</f>
+        <v>9.6566063910677777E-2</v>
+      </c>
+      <c r="J26">
+        <f>1/E26</f>
+        <v>7.1597294161697689E-2</v>
+      </c>
+      <c r="K26">
+        <f>1/F26</f>
+        <v>8.30728966463746E-2</v>
+      </c>
+      <c r="L26">
+        <f>SLOPE(G26:K26,G$1:K$1)</f>
+        <v>2.1678270812898578E-2</v>
+      </c>
+      <c r="M26">
+        <f>INTERCEPT(G26:K26,G$1:K$1)</f>
+        <v>2.4655511903534155E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27">
+        <v>2.5347734128623927</v>
+      </c>
+      <c r="C27">
+        <v>4.6525405844464789</v>
+      </c>
+      <c r="D27">
+        <v>6.8204872400446908</v>
+      </c>
+      <c r="E27">
+        <v>7.6241503516198126</v>
+      </c>
+      <c r="F27">
+        <v>8.7350936999645015</v>
+      </c>
+      <c r="G27">
+        <f>1/B27</f>
+        <v>0.3945125804640463</v>
+      </c>
+      <c r="H27">
+        <f>1/C27</f>
+        <v>0.21493633034454696</v>
+      </c>
+      <c r="I27">
+        <f>1/D27</f>
+        <v>0.14661709124368183</v>
+      </c>
+      <c r="J27">
+        <f>1/E27</f>
+        <v>0.13116215629031264</v>
+      </c>
+      <c r="K27">
+        <f>1/F27</f>
+        <v>0.1144807410599458</v>
+      </c>
+      <c r="L27">
+        <f>SLOPE(G27:K27,G$1:K$1)</f>
+        <v>3.5423299722138771E-2</v>
+      </c>
+      <c r="M27">
+        <f>INTERCEPT(G27:K27,G$1:K$1)</f>
+        <v>3.8575377816072953E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28">
+        <v>3.2023680565792367</v>
+      </c>
+      <c r="C28">
+        <v>6.2790078359921004</v>
+      </c>
+      <c r="D28">
+        <v>8.8489201046297623</v>
+      </c>
+      <c r="E28">
+        <v>10.887793082593076</v>
+      </c>
+      <c r="F28">
+        <v>11.872366268426749</v>
+      </c>
+      <c r="G28">
+        <f>1/B28</f>
+        <v>0.31226891548131352</v>
+      </c>
+      <c r="H28">
+        <f>1/C28</f>
+        <v>0.15926083007380054</v>
+      </c>
+      <c r="I28">
+        <f>1/D28</f>
+        <v>0.11300813977027538</v>
+      </c>
+      <c r="J28">
+        <f>1/E28</f>
+        <v>9.1845977638825266E-2</v>
+      </c>
+      <c r="K28">
+        <f>1/F28</f>
+        <v>8.4229207336652845E-2</v>
+      </c>
+      <c r="L28">
+        <f>SLOPE(G28:K28,G$1:K$1)</f>
+        <v>2.8993260241064328E-2</v>
+      </c>
+      <c r="M28">
+        <f>INTERCEPT(G28:K28,G$1:K$1)</f>
+        <v>1.9720058959313086E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29">
+        <v>2.8714960802537068</v>
+      </c>
+      <c r="C29">
+        <v>5.4725079281941991</v>
+      </c>
+      <c r="D29">
+        <v>8.3704056375854829</v>
+      </c>
+      <c r="E29">
+        <v>10.065389484861228</v>
+      </c>
+      <c r="F29">
+        <v>12.410444577322952</v>
+      </c>
+      <c r="G29">
+        <f>1/B29</f>
+        <v>0.34825051891125913</v>
+      </c>
+      <c r="H29">
+        <f>1/C29</f>
+        <v>0.18273157629393821</v>
+      </c>
+      <c r="I29">
+        <f>1/D29</f>
+        <v>0.11946852318718197</v>
+      </c>
+      <c r="J29">
+        <f>1/E29</f>
+        <v>9.9350353158617691E-2</v>
+      </c>
+      <c r="K29">
+        <f>1/F29</f>
+        <v>8.0577290665900483E-2</v>
+      </c>
+      <c r="L29">
+        <f>SLOPE(G29:K29,G$1:K$1)</f>
+        <v>3.3544749027974177E-2</v>
+      </c>
+      <c r="M29">
+        <f>INTERCEPT(G29:K29,G$1:K$1)</f>
+        <v>1.2887965215630764E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30">
+        <v>7.9002582512563908</v>
+      </c>
+      <c r="C30">
+        <v>14.149540643592928</v>
+      </c>
+      <c r="D30">
+        <v>22.404956201116221</v>
+      </c>
+      <c r="E30">
+        <v>24.825366401120704</v>
+      </c>
+      <c r="F30">
+        <v>28.784331949766401</v>
+      </c>
+      <c r="G30">
+        <f>1/B30</f>
+        <v>0.12657814063748718</v>
+      </c>
+      <c r="H30">
+        <f>1/C30</f>
+        <v>7.0673672396058401E-2</v>
+      </c>
+      <c r="I30">
+        <f>1/D30</f>
+        <v>4.4632981694924259E-2</v>
+      </c>
+      <c r="J30">
+        <f>1/E30</f>
+        <v>4.0281379289324667E-2</v>
+      </c>
+      <c r="K30">
+        <f>1/F30</f>
+        <v>3.4741122418445271E-2</v>
+      </c>
+      <c r="L30">
+        <f>SLOPE(G30:K30,G$1:K$1)</f>
+        <v>1.1663460190223249E-2</v>
+      </c>
+      <c r="M30">
+        <f>INTERCEPT(G30:K30,G$1:K$1)</f>
+        <v>1.0118324418561794E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31">
+        <v>4.44671678713574</v>
+      </c>
+      <c r="C31">
+        <v>7.7767415665953248</v>
+      </c>
+      <c r="D31">
+        <v>12.273927635040813</v>
+      </c>
+      <c r="E31">
+        <v>14.225606851885839</v>
+      </c>
+      <c r="F31">
+        <v>17.369978177871307</v>
+      </c>
+      <c r="G31">
+        <f>1/B31</f>
+        <v>0.22488502143715997</v>
+      </c>
+      <c r="H31">
+        <f>1/C31</f>
+        <v>0.12858856005906882</v>
+      </c>
+      <c r="I31">
+        <f>1/D31</f>
+        <v>8.1473512777206034E-2</v>
+      </c>
+      <c r="J31">
+        <f>1/E31</f>
+        <v>7.029577088779404E-2</v>
+      </c>
+      <c r="K31">
+        <f>1/F31</f>
+        <v>5.757059621836267E-2</v>
+      </c>
+      <c r="L31">
+        <f>SLOPE(G31:K31,G$1:K$1)</f>
+        <v>2.1004843794940223E-2</v>
+      </c>
+      <c r="M31">
+        <f>INTERCEPT(G31:K31,G$1:K$1)</f>
+        <v>1.6640572279024629E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32">
+        <v>3.2289437250985662</v>
+      </c>
+      <c r="C32">
+        <v>6.2490136457256549</v>
+      </c>
+      <c r="D32">
+        <v>8.9060786899802125</v>
+      </c>
+      <c r="E32">
+        <v>10.509512950953569</v>
+      </c>
+      <c r="F32">
+        <v>11.900116855652197</v>
+      </c>
+      <c r="G32">
+        <f>1/B32</f>
+        <v>0.3096988009506032</v>
+      </c>
+      <c r="H32">
+        <f>1/C32</f>
+        <v>0.16002525465502915</v>
+      </c>
+      <c r="I32">
+        <f>1/D32</f>
+        <v>0.11228286149380765</v>
+      </c>
+      <c r="J32">
+        <f>1/E32</f>
+        <v>9.5151888071964938E-2</v>
+      </c>
+      <c r="K32">
+        <f>1/F32</f>
+        <v>8.4032788259976635E-2</v>
+      </c>
+      <c r="L32">
+        <f>SLOPE(G32:K32,G$1:K$1)</f>
+        <v>2.8540252297027027E-2</v>
+      </c>
+      <c r="M32">
+        <f>INTERCEPT(G32:K32,G$1:K$1)</f>
+        <v>2.1904499863186211E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33">
+        <v>2.8714960802537068</v>
+      </c>
+      <c r="C33">
+        <v>5.1360147444403683</v>
+      </c>
+      <c r="D33">
+        <v>7.3600806566724284</v>
+      </c>
+      <c r="E33">
+        <v>9.0269745057892585</v>
+      </c>
+      <c r="F33">
+        <v>10.934821964096129</v>
+      </c>
+      <c r="G33">
+        <f>1/B33</f>
+        <v>0.34825051891125913</v>
+      </c>
+      <c r="H33">
+        <f>1/C33</f>
+        <v>0.19470349088901656</v>
+      </c>
+      <c r="I33">
+        <f>1/D33</f>
+        <v>0.13586807626808139</v>
+      </c>
+      <c r="J33">
+        <f>1/E33</f>
+        <v>0.11077908765098109</v>
+      </c>
+      <c r="K33">
+        <f>1/F33</f>
+        <v>9.1450963105155589E-2</v>
+      </c>
+      <c r="L33">
+        <f>SLOPE(G33:K33,G$1:K$1)</f>
+        <v>3.196317334903561E-2</v>
+      </c>
+      <c r="M33">
+        <f>INTERCEPT(G33:K33,G$1:K$1)</f>
+        <v>3.0245269070969444E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34">
+        <v>3.0516683833284493</v>
+      </c>
+      <c r="C34">
+        <v>5.9216265767002243</v>
+      </c>
+      <c r="D34">
+        <v>8.6325144383863748</v>
+      </c>
+      <c r="E34">
+        <v>11.471979715137996</v>
+      </c>
+      <c r="F34">
+        <v>13.708808079780969</v>
+      </c>
+      <c r="G34">
+        <f>1/B34</f>
+        <v>0.32768960266557595</v>
+      </c>
+      <c r="H34">
+        <f>1/C34</f>
+        <v>0.16887251957674801</v>
+      </c>
+      <c r="I34">
+        <f>1/D34</f>
+        <v>0.1158411036711714</v>
+      </c>
+      <c r="J34">
+        <f>1/E34</f>
+        <v>8.7168912849491645E-2</v>
+      </c>
+      <c r="K34">
+        <f>1/F34</f>
+        <v>7.2945802011401231E-2</v>
+      </c>
+      <c r="L34">
+        <f>SLOPE(G34:K34,G$1:K$1)</f>
+        <v>3.1917630254704503E-2</v>
+      </c>
+      <c r="M34">
+        <f>INTERCEPT(G34:K34,G$1:K$1)</f>
+        <v>8.7464099917270999E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35">
+        <v>9.02755728246815</v>
+      </c>
+      <c r="C35">
+        <v>17.032544874879704</v>
+      </c>
+      <c r="D35">
+        <v>22.013363679488624</v>
+      </c>
+      <c r="E35">
+        <v>30.910291910779755</v>
+      </c>
+      <c r="F35">
+        <v>35.436285162103538</v>
+      </c>
+      <c r="G35">
+        <f>1/B35</f>
+        <v>0.11077193627361823</v>
+      </c>
+      <c r="H35">
+        <f>1/C35</f>
+        <v>5.8711132560985702E-2</v>
+      </c>
+      <c r="I35">
+        <f>1/D35</f>
+        <v>4.5426951308298665E-2</v>
+      </c>
+      <c r="J35">
+        <f>1/E35</f>
+        <v>3.2351684121470776E-2</v>
+      </c>
+      <c r="K35">
+        <f>1/F35</f>
+        <v>2.8219662287553363E-2</v>
+      </c>
+      <c r="L35">
+        <f>SLOPE(G35:K35,G$1:K$1)</f>
+        <v>1.0263638906398686E-2</v>
+      </c>
+      <c r="M35">
+        <f>INTERCEPT(G35:K35,G$1:K$1)</f>
+        <v>8.2256556378313486E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36">
+        <v>4.5775025749926739</v>
+      </c>
+      <c r="C36">
+        <v>9.9087175865704609</v>
+      </c>
+      <c r="D36">
+        <v>12.254918723992542</v>
+      </c>
+      <c r="E36">
+        <v>16.019503277896757</v>
+      </c>
+      <c r="F36">
+        <v>18.02020105654864</v>
+      </c>
+      <c r="G36">
+        <f>1/B36</f>
+        <v>0.21845973511038397</v>
+      </c>
+      <c r="H36">
+        <f>1/C36</f>
+        <v>0.10092123337487442</v>
+      </c>
+      <c r="I36">
+        <f>1/D36</f>
+        <v>8.1599888381324898E-2</v>
+      </c>
+      <c r="J36">
+        <f>1/E36</f>
+        <v>6.2423908073340251E-2</v>
+      </c>
+      <c r="K36">
+        <f>1/F36</f>
+        <v>5.5493276510174924E-2</v>
+      </c>
+      <c r="L36">
+        <f>SLOPE(G36:K36,G$1:K$1)</f>
+        <v>2.0400041495453831E-2</v>
+      </c>
+      <c r="M36">
+        <f>INTERCEPT(G36:K36,G$1:K$1)</f>
+        <v>1.0619418794113863E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37">
+        <v>1.451819846546184</v>
+      </c>
+      <c r="C37">
+        <v>2.7080000530926487</v>
+      </c>
+      <c r="D37">
+        <v>3.7927198821670962</v>
+      </c>
+      <c r="E37">
+        <v>4.7958778443183316</v>
+      </c>
+      <c r="F37">
+        <v>5.9543435221302685</v>
+      </c>
+      <c r="G37">
+        <f>1/B37</f>
+        <v>0.68879069423038697</v>
+      </c>
+      <c r="H37">
+        <f>1/C37</f>
+        <v>0.36927621137154648</v>
+      </c>
+      <c r="I37">
+        <f>1/D37</f>
+        <v>0.26366302576203354</v>
+      </c>
+      <c r="J37">
+        <f>1/E37</f>
+        <v>0.20851240011976083</v>
+      </c>
+      <c r="K37">
+        <f>1/F37</f>
+        <v>0.16794462668862492</v>
+      </c>
+      <c r="L37">
+        <f>SLOPE(G37:K37,G$1:K$1)</f>
+        <v>6.4513017601693756E-2</v>
+      </c>
+      <c r="M37">
+        <f>INTERCEPT(G37:K37,G$1:K$1)</f>
+        <v>4.5027944586735758E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38">
+        <v>9.341841989780967</v>
+      </c>
+      <c r="C38">
+        <v>19.460436823451605</v>
+      </c>
+      <c r="D38">
+        <v>25.482198031509682</v>
+      </c>
+      <c r="E38">
+        <v>33.132485308338232</v>
+      </c>
+      <c r="F38">
+        <v>37.469298005242585</v>
+      </c>
+      <c r="G38">
+        <f>1/B38</f>
+        <v>0.10704527020408813</v>
+      </c>
+      <c r="H38">
+        <f>1/C38</f>
+        <v>5.1386307978190326E-2</v>
+      </c>
+      <c r="I38">
+        <f>1/D38</f>
+        <v>3.9243082514446477E-2</v>
+      </c>
+      <c r="J38">
+        <f>1/E38</f>
+        <v>3.0181859003143862E-2</v>
+      </c>
+      <c r="K38">
+        <f>1/F38</f>
+        <v>2.6688517085643911E-2</v>
+      </c>
+      <c r="L38">
+        <f>SLOPE(G38:K38,G$1:K$1)</f>
+        <v>1.0088264984286289E-2</v>
+      </c>
+      <c r="M38">
+        <f>INTERCEPT(G38:K38,G$1:K$1)</f>
+        <v>4.8392639288618242E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39">
+        <v>1.237162858106128</v>
+      </c>
+      <c r="C39">
+        <v>2.4931037560565139</v>
+      </c>
+      <c r="D39">
+        <v>3.4949802509480206</v>
+      </c>
+      <c r="E39">
+        <v>4.6528757929698026</v>
+      </c>
+      <c r="F39">
+        <v>4.7952416476386848</v>
+      </c>
+      <c r="G39">
+        <f>1/B39</f>
+        <v>0.80830101990842063</v>
+      </c>
+      <c r="H39">
+        <f>1/C39</f>
+        <v>0.40110645117384031</v>
+      </c>
+      <c r="I39">
+        <f>1/D39</f>
+        <v>0.2861246496968754</v>
+      </c>
+      <c r="J39">
+        <f>1/E39</f>
+        <v>0.21492084562217112</v>
+      </c>
+      <c r="K39">
+        <f>1/F39</f>
+        <v>0.20854006398038957</v>
+      </c>
+      <c r="L39">
+        <f>SLOPE(G39:K39,G$1:K$1)</f>
+        <v>7.6820085044733491E-2</v>
+      </c>
+      <c r="M39">
+        <f>INTERCEPT(G39:K39,G$1:K$1)</f>
+        <v>3.2986884372056491E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40">
+        <v>10.929430305460036</v>
+      </c>
+      <c r="C40">
+        <v>17.973599524988305</v>
+      </c>
+      <c r="D40">
+        <v>29.161821480212172</v>
+      </c>
+      <c r="E40">
+        <v>30.722140590773595</v>
+      </c>
+      <c r="F40">
+        <v>39.751540150643031</v>
+      </c>
+      <c r="G40">
+        <f>1/B40</f>
+        <v>9.1496077293290221E-2</v>
+      </c>
+      <c r="H40">
+        <f>1/C40</f>
+        <v>5.5637158189138558E-2</v>
+      </c>
+      <c r="I40">
+        <f>1/D40</f>
+        <v>3.4291410798140728E-2</v>
+      </c>
+      <c r="J40">
+        <f>1/E40</f>
+        <v>3.2549815239772642E-2</v>
+      </c>
+      <c r="K40">
+        <f>1/F40</f>
+        <v>2.5156258001838044E-2</v>
+      </c>
+      <c r="L40">
+        <f>SLOPE(G40:K40,G$1:K$1)</f>
+        <v>8.2470230026872766E-3</v>
+      </c>
+      <c r="M40">
+        <f>INTERCEPT(G40:K40,G$1:K$1)</f>
+        <v>1.0164738858830812E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41">
+        <v>3.2423976572864772</v>
+      </c>
+      <c r="C41">
+        <v>5.847813673584743</v>
+      </c>
+      <c r="D41">
+        <v>9.3784332623621687</v>
+      </c>
+      <c r="E41">
+        <v>11.024230971447396</v>
+      </c>
+      <c r="F41">
+        <v>12.383501316095888</v>
+      </c>
+      <c r="G41">
+        <f>1/B41</f>
+        <v>0.30841374368524793</v>
+      </c>
+      <c r="H41">
+        <f>1/C41</f>
+        <v>0.17100408046807591</v>
+      </c>
+      <c r="I41">
+        <f>1/D41</f>
+        <v>0.10662761807062511</v>
+      </c>
+      <c r="J41">
+        <f>1/E41</f>
+        <v>9.0709275104085357E-2</v>
+      </c>
+      <c r="K41">
+        <f>1/F41</f>
+        <v>8.0752605783649817E-2</v>
+      </c>
+      <c r="L41">
+        <f>SLOPE(G41:K41,G$1:K$1)</f>
+        <v>2.9071287510327039E-2</v>
+      </c>
+      <c r="M41">
+        <f>INTERCEPT(G41:K41,G$1:K$1)</f>
+        <v>1.8742584991843364E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42">
+        <v>2.903639693092368</v>
+      </c>
+      <c r="C42">
+        <v>5.2348337545566883</v>
+      </c>
+      <c r="D42">
+        <v>8.0013524325488738</v>
+      </c>
+      <c r="E42">
+        <v>10.028771105703097</v>
+      </c>
+      <c r="F42">
+        <v>11.668913041660081</v>
+      </c>
+      <c r="G42">
+        <f>1/B42</f>
+        <v>0.34439534711519348</v>
+      </c>
+      <c r="H42">
+        <f>1/C42</f>
+        <v>0.19102803391407508</v>
+      </c>
+      <c r="I42">
+        <f>1/D42</f>
+        <v>0.12497887181322978</v>
+      </c>
+      <c r="J42">
+        <f>1/E42</f>
+        <v>9.9713114344720313E-2</v>
+      </c>
+      <c r="K42">
+        <f>1/F42</f>
+        <v>8.5697784911912808E-2</v>
+      </c>
+      <c r="L42">
+        <f>SLOPE(G42:K42,G$1:K$1)</f>
+        <v>3.2640954516351683E-2</v>
+      </c>
+      <c r="M42">
+        <f>INTERCEPT(G42:K42,G$1:K$1)</f>
+        <v>2.0102271461820281E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43">
+        <v>3.5696120997649294</v>
+      </c>
+      <c r="C43">
+        <v>7.2539693230596161</v>
+      </c>
+      <c r="D43">
+        <v>9.798191189496027</v>
+      </c>
+      <c r="E43">
+        <v>11.451219889831719</v>
+      </c>
+      <c r="F43">
+        <v>12.369832252690845</v>
+      </c>
+      <c r="G43">
+        <f>1/B43</f>
+        <v>0.28014248384743351</v>
+      </c>
+      <c r="H43">
+        <f>1/C43</f>
+        <v>0.1378555595515277</v>
+      </c>
+      <c r="I43">
+        <f>1/D43</f>
+        <v>0.10205965373201044</v>
+      </c>
+      <c r="J43">
+        <f>1/E43</f>
+        <v>8.7326940677120768E-2</v>
+      </c>
+      <c r="K43">
+        <f>1/F43</f>
+        <v>8.0841840016259492E-2</v>
+      </c>
+      <c r="L43">
+        <f>SLOPE(G43:K43,G$1:K$1)</f>
+        <v>2.5374905979395724E-2</v>
+      </c>
+      <c r="M43">
+        <f>INTERCEPT(G43:K43,G$1:K$1)</f>
+        <v>2.1766558258963245E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44">
+        <v>0.97150491604089217</v>
+      </c>
+      <c r="C44">
+        <v>1.8933228939019939</v>
+      </c>
+      <c r="D44">
+        <v>2.6793453942632217</v>
+      </c>
+      <c r="E44">
+        <v>3.4965170594375152</v>
+      </c>
+      <c r="F44">
+        <v>4.5681627275421191</v>
+      </c>
+      <c r="G44">
+        <f>1/B44</f>
+        <v>1.0293308695495149</v>
+      </c>
+      <c r="H44">
+        <f>1/C44</f>
+        <v>0.52817192631050713</v>
+      </c>
+      <c r="I44">
+        <f>1/D44</f>
+        <v>0.37322549087591017</v>
+      </c>
+      <c r="J44">
+        <f>1/E44</f>
+        <v>0.28599889061055234</v>
+      </c>
+      <c r="K44">
+        <f>1/F44</f>
+        <v>0.21890638745657071</v>
+      </c>
+      <c r="L44">
+        <f>SLOPE(G44:K44,G$1:K$1)</f>
+        <v>9.9986880066675277E-2</v>
+      </c>
+      <c r="M44">
+        <f>INTERCEPT(G44:K44,G$1:K$1)</f>
+        <v>3.0519960656127332E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45">
+        <v>4.0319970867811117</v>
+      </c>
+      <c r="C45">
+        <v>8.5381493058418592</v>
+      </c>
+      <c r="D45">
+        <v>11.626686295908055</v>
+      </c>
+      <c r="E45">
+        <v>15.792637301740276</v>
+      </c>
+      <c r="F45">
+        <v>23.017633817003318</v>
+      </c>
+      <c r="G45">
+        <f>1/B45</f>
+        <v>0.24801605221355355</v>
+      </c>
+      <c r="H45">
+        <f>1/C45</f>
+        <v>0.11712139998720722</v>
+      </c>
+      <c r="I45">
+        <f>1/D45</f>
+        <v>8.6009029103326223E-2</v>
+      </c>
+      <c r="J45">
+        <f>1/E45</f>
+        <v>6.3320646253922683E-2</v>
+      </c>
+      <c r="K45">
+        <f>1/F45</f>
+        <v>4.3444952159300214E-2</v>
+      </c>
+      <c r="L45">
+        <f>SLOPE(G45:K45,G$1:K$1)</f>
+        <v>2.4943811443883739E-2</v>
+      </c>
+      <c r="M45">
+        <f>INTERCEPT(G45:K45,G$1:K$1)</f>
+        <v>-2.3276563169404296E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>174</v>
+      </c>
+      <c r="L46">
+        <f>MEDIAN(L2:L45)</f>
+        <v>2.4654186984652438E-2</v>
+      </c>
+      <c r="M46">
+        <f>MEDIAN(M2:M45)</f>
+        <v>2.079854495261519E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>169</v>
+      </c>
+      <c r="L47">
+        <f>AVERAGE(L2:L45)</f>
+        <v>2.9127613285073829E-2</v>
+      </c>
+      <c r="M47">
+        <f>AVERAGE(M2:M45)</f>
+        <v>2.3820388438721807E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>